--- a/Excel/Administration_Security.xlsx
+++ b/Excel/Administration_Security.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UserAccount" sheetId="15" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
   <si>
     <t>geoAMPS Power Generation, LLC</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>LastName1674</t>
+  </si>
+  <si>
+    <t>SpecialPermissionOption</t>
+  </si>
+  <si>
+    <t>Enable Map</t>
+  </si>
+  <si>
+    <t>Agreement Summary</t>
+  </si>
+  <si>
+    <t>TemplatePermissions</t>
   </si>
 </sst>
 </file>
@@ -929,18 +941,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -953,8 +968,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -967,8 +985,11 @@
       <c r="D2" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -981,8 +1002,11 @@
       <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -995,8 +1019,11 @@
       <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1008,6 +1035,9 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1022,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,9 +1063,10 @@
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1048,8 +1079,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1062,8 +1096,11 @@
       <c r="D2" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1076,8 +1113,11 @@
       <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -1090,8 +1130,11 @@
       <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1103,6 +1146,9 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
